--- a/database/masters/data-seeder.xlsx
+++ b/database/masters/data-seeder.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/backend.siruhay/modules/foundation/database/masters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/backend.devsiruhay/modules/foundation/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939B7292-B936-D747-87C5-A0E460773BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA726EE-B945-5641-AFCE-C4B78B632A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8760" windowWidth="27940" windowHeight="12840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5160" windowWidth="27940" windowHeight="12840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="positions" sheetId="11" r:id="rId1"/>
@@ -1578,8 +1578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B396BE6-84C7-2344-B0CB-E6717576EFDB}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5549,7 +5549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BAC8A2A-BF4B-904B-BA18-84D62B4490D1}">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
